--- a/characters.xlsx
+++ b/characters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FUjiTSU\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\Prolog\akinator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126B7680-FFE9-4FE3-BFE2-EFA95B26CE81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26373254-A181-41B0-ADF0-99B8B24DCF59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B36A965B-E188-4076-B070-D5D5CC097664}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{B36A965B-E188-4076-B070-D5D5CC097664}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>President</t>
   </si>
   <si>
-    <t>Egyption</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Black</t>
   </si>
   <si>
@@ -202,6 +199,9 @@
   </si>
   <si>
     <t>Adel Emam</t>
+  </si>
+  <si>
+    <t>Egyptian</t>
   </si>
 </sst>
 </file>
@@ -514,6 +514,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -523,13 +530,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -847,7 +847,7 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="C11" sqref="B11:C11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,16 +857,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
+      <c r="A1" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24"/>
       <c r="I1" s="13"/>
       <c r="J1" s="14"/>
     </row>
@@ -875,11 +875,11 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>1</v>
@@ -891,13 +891,13 @@
         <v>3</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>55</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -905,29 +905,29 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -935,29 +935,29 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -965,29 +965,29 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -995,29 +995,29 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1025,29 +1025,29 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1055,29 +1055,29 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1085,29 +1085,29 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1115,59 +1115,59 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="20"/>
+      <c r="B11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="17"/>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1175,29 +1175,29 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1205,29 +1205,29 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1235,29 +1235,29 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1265,29 +1265,29 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1295,29 +1295,29 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1325,59 +1325,59 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="20"/>
+      <c r="B18" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="17"/>
       <c r="D18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1385,29 +1385,29 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1415,29 +1415,29 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1445,29 +1445,29 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1475,29 +1475,29 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1505,29 +1505,29 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1535,29 +1535,29 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1565,29 +1565,29 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1595,29 +1595,29 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1625,29 +1625,29 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1655,29 +1655,29 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1685,29 +1685,29 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1715,29 +1715,29 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1745,29 +1745,29 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1775,29 +1775,29 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1805,29 +1805,29 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1835,29 +1835,29 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1865,89 +1865,89 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>34</v>
       </c>
-      <c r="B36" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="20"/>
+      <c r="B36" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="17"/>
       <c r="D36" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>35</v>
       </c>
-      <c r="B37" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="20"/>
+      <c r="B37" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="17"/>
       <c r="D37" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1955,29 +1955,29 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1985,59 +1985,59 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>38</v>
       </c>
-      <c r="B40" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="20"/>
+      <c r="B40" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="17"/>
       <c r="D40" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2045,29 +2045,29 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2075,29 +2075,29 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2105,29 +2105,29 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2135,29 +2135,29 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2165,29 +2165,29 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2195,29 +2195,29 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2225,59 +2225,59 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="21">
+      <c r="A48" s="18">
         <v>46</v>
       </c>
-      <c r="B48" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F48" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G48" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="H48" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I48" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="J48" s="24" t="s">
-        <v>35</v>
+      <c r="B48" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="17"/>
+      <c r="D48" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J48" s="21" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2285,29 +2285,29 @@
         <v>47</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J49" s="18" t="s">
-        <v>35</v>
+        <v>35</v>
+      </c>
+      <c r="J49" s="15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
